--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-397833.8980309624</v>
+        <v>-400322.637060479</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>39.52405900590627</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>70.51113862850629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.3682437923753</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7368957119604488</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>186.0867603502145</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>231.9311181078506</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>211.086217247884</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.71978120500688</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>140.6035839880971</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>372.9866887009327</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1342,19 +1342,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>150.5947681023072</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>178.5812472908717</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>80.56412890121747</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890358</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.54490042790936</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>134.5665975534157</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238289</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>163.1485391341849</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6197054599889589</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>215.7213978539463</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>172.7365230047954</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6512573180109</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>140.1230996349835</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>233.0346528866209</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>105.3219429113322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>180.1003471321689</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,10 +3904,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545302</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>881.8471639544687</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>523.5814653477182</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="E2" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4404,16 +4404,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>530.2513404403938</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124869</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1907.730665469931</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1907.730665469931</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="U4" t="n">
-        <v>1704.783593555029</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="V4" t="n">
-        <v>1450.099105349142</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W4" t="n">
-        <v>1160.681935312181</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X4" t="n">
-        <v>932.6923844141637</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y4" t="n">
-        <v>711.8998052706336</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3027.34872854009</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2773.818251813927</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2773.818251813927</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2421.049596543812</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="X5" t="n">
-        <v>2047.583838282732</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>941.4970410294717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1714.076146828003</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1424.973279953647</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1170.28879174776</v>
       </c>
       <c r="W7" t="n">
-        <v>1169.327103036486</v>
+        <v>880.8716217107993</v>
       </c>
       <c r="X7" t="n">
-        <v>1169.327103036486</v>
+        <v>880.8716217107993</v>
       </c>
       <c r="Y7" t="n">
-        <v>1123.145505859711</v>
+        <v>660.0790425672692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1672.191441142817</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118629</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142817</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>794.6070935315613</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4957,7 +4957,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1493.662279296779</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.594421205412</v>
+        <v>1204.245109259818</v>
       </c>
       <c r="X10" t="n">
-        <v>954.2093229318045</v>
+        <v>976.255558361801</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.2093229318045</v>
+        <v>976.255558361801</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1318.750944035998</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1097.958364892468</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,25 +5291,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991043</v>
+        <v>696.708435085169</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>527.7722521572621</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>377.6556127449263</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>229.7425191625332</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>229.7425191625332</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855606</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199804</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1616.556199993917</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648818</v>
+        <v>1327.139029956956</v>
       </c>
       <c r="X16" t="n">
-        <v>1268.904861472874</v>
+        <v>1099.149479058939</v>
       </c>
       <c r="Y16" t="n">
-        <v>1048.112282329344</v>
+        <v>878.3568999154087</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,58 +5501,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.3164745246296</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C19" t="n">
-        <v>701.3802915967227</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D19" t="n">
-        <v>551.263652184387</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>403.3505586019938</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="20">
@@ -5744,52 +5744,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591808</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>810.0653816078141</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C22" t="n">
-        <v>641.1291986799072</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2272.48174721178</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2052.880282234721</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1763.805055578919</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1509.120567373032</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1219.703397336071</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>991.7138464380538</v>
+        <v>1089.459942472577</v>
       </c>
       <c r="Y22" t="n">
-        <v>991.7138464380538</v>
+        <v>868.6673633290468</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2305.424599100479</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2085.82313412342</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1796.747907467618</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.063419261731</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1252.64624922477</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X25" t="n">
-        <v>1024.656698326753</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y25" t="n">
-        <v>803.8641191832229</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459586</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180517</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>449.485266605716</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>449.485266605716</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817746</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761984</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7552,7 +7552,7 @@
         <v>656.964603115003</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7786,13 +7786,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>325.7488327651013</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>231.2951010684157</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>311.4192314437555</v>
       </c>
       <c r="F2" t="n">
-        <v>283.4881051894429</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>99.26785128071982</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>166.0397529241854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>30.95754073885314</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>62.56111625485221</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>144.8013425629423</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012319</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>36.41624546988174</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>8.289762996849163</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>105.0583980710263</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>40.90318636666106</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>53.48834544997013</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>40.099105111599</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.9259388694757149</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>34.97276993489206</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350417</v>
+        <v>251542.9259350416</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="F2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="G2" t="n">
         <v>282501.3098915021</v>
-      </c>
-      <c r="F2" t="n">
-        <v>282501.309891502</v>
-      </c>
-      <c r="G2" t="n">
-        <v>282501.3098915022</v>
       </c>
       <c r="H2" t="n">
         <v>282501.3098915022</v>
@@ -26335,25 +26335,25 @@
         <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
+        <v>287364.6194524992</v>
+      </c>
+      <c r="P2" t="n">
         <v>287364.6194524991</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.7767646315624e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34377.14788073985</v>
+        <v>34377.14788073982</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319403</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>21597.66737493622</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1219512.908234684</v>
+        <v>-1219768.777474094</v>
       </c>
       <c r="C6" t="n">
-        <v>86636.8360079118</v>
+        <v>86636.83600791192</v>
       </c>
       <c r="D6" t="n">
-        <v>86636.83600791197</v>
+        <v>86636.83600791176</v>
       </c>
       <c r="E6" t="n">
-        <v>-157640.4898516028</v>
+        <v>-157675.2277770387</v>
       </c>
       <c r="F6" t="n">
-        <v>167771.9719557522</v>
+        <v>167737.2340303168</v>
       </c>
       <c r="G6" t="n">
-        <v>167771.9719557523</v>
+        <v>167737.2340303166</v>
       </c>
       <c r="H6" t="n">
-        <v>167771.9719557523</v>
+        <v>167737.2340303166</v>
       </c>
       <c r="I6" t="n">
-        <v>167771.9719557523</v>
+        <v>167737.2340303166</v>
       </c>
       <c r="J6" t="n">
-        <v>-49759.23044152519</v>
+        <v>-49793.96836696087</v>
       </c>
       <c r="K6" t="n">
-        <v>167771.9719557523</v>
+        <v>167737.2340303165</v>
       </c>
       <c r="L6" t="n">
-        <v>167771.9719557521</v>
+        <v>167737.2340303167</v>
       </c>
       <c r="M6" t="n">
-        <v>82716.94402024073</v>
+        <v>82682.20609480457</v>
       </c>
       <c r="N6" t="n">
-        <v>167771.9719557525</v>
+        <v>167737.2340303166</v>
       </c>
       <c r="O6" t="n">
-        <v>143175.1182300157</v>
+        <v>143175.1182300158</v>
       </c>
       <c r="P6" t="n">
-        <v>162602.8362236476</v>
+        <v>162602.8362236475</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>123.3879405522673</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>123.3879405522685</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>69.56390887767205</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>285.4749424936524</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>17.83120978940568</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>117.3098506095624</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8.462732028285188</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>172.8648721470879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>224.6693077829104</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>13.25124995512084</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>101.5428752215208</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>47.12840809816544</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-7.144468577784776e-14</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29758,13 +29758,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>255.6522884173734</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197783</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,19 +33737,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>160.8335108287869</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753338</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
